--- a/BackTestingShortie/Results/percent_returns.xlsx
+++ b/BackTestingShortie/Results/percent_returns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidanjalili03/Desktop/Edison/BackTestingShortie/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF390D38-6755-3C42-AE27-3E2BA4F5B617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575F121-A2B9-6141-8AA3-555091B91091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15475,8 +15475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15532,8 +15532,8 @@
         <v>318</v>
       </c>
       <c r="L2">
-        <f>COUNTIF(C:C,"&gt;0")</f>
-        <v>804</v>
+        <f>COUNTIF(G:G,"&gt;0")</f>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -15569,8 +15569,8 @@
         <v>317</v>
       </c>
       <c r="L3">
-        <f>COUNTIF(C:C,"&lt;0")</f>
-        <v>214</v>
+        <f>COUNTIF(G:G,"&lt;0")</f>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="L5">
         <f>L2/L3</f>
-        <v>3.7570093457943927</v>
+        <v>0.52066115702479343</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">

--- a/BackTestingShortie/Results/percent_returns.xlsx
+++ b/BackTestingShortie/Results/percent_returns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidanjalili03/Desktop/Edison/BackTestingShortie/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8575F121-A2B9-6141-8AA3-555091B91091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBACDD0-D671-F340-A43D-756163152A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="percent_returns" sheetId="1" r:id="rId1"/>
@@ -4245,14 +4245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1019"/>
   <sheetViews>
-    <sheetView topLeftCell="A924" workbookViewId="0">
-      <selection activeCell="A939" sqref="A939"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4273,7 +4270,7 @@
         <v>337</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,7 +4281,7 @@
         <v>525</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4306,7 +4303,7 @@
         <v>244</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4317,7 +4314,7 @@
         <v>240</v>
       </c>
       <c r="C6">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,7 +4325,7 @@
         <v>199</v>
       </c>
       <c r="C7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4339,7 +4336,7 @@
         <v>199</v>
       </c>
       <c r="C8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4361,7 +4358,7 @@
         <v>303</v>
       </c>
       <c r="C10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,7 +4369,7 @@
         <v>303</v>
       </c>
       <c r="C11">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4383,7 +4380,7 @@
         <v>303</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4394,7 +4391,7 @@
         <v>340</v>
       </c>
       <c r="C13">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4405,7 +4402,7 @@
         <v>303</v>
       </c>
       <c r="C14">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4427,7 +4424,7 @@
         <v>278</v>
       </c>
       <c r="C16">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4438,7 +4435,7 @@
         <v>332</v>
       </c>
       <c r="C17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4460,7 +4457,7 @@
         <v>338</v>
       </c>
       <c r="C19">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4471,7 +4468,7 @@
         <v>338</v>
       </c>
       <c r="C20">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4482,7 +4479,7 @@
         <v>345</v>
       </c>
       <c r="C21">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,7 +4490,7 @@
         <v>338</v>
       </c>
       <c r="C22">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,7 +4501,7 @@
         <v>313</v>
       </c>
       <c r="C23">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,7 +4512,7 @@
         <v>338</v>
       </c>
       <c r="C24">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4548,7 +4545,7 @@
         <v>248</v>
       </c>
       <c r="C27">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4559,7 +4556,7 @@
         <v>519</v>
       </c>
       <c r="C28">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,7 +4567,7 @@
         <v>277</v>
       </c>
       <c r="C29">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,7 +4578,7 @@
         <v>338</v>
       </c>
       <c r="C30">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,7 +4589,7 @@
         <v>346</v>
       </c>
       <c r="C31">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4603,7 +4600,7 @@
         <v>346</v>
       </c>
       <c r="C32">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,7 +4611,7 @@
         <v>514</v>
       </c>
       <c r="C33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4625,7 +4622,7 @@
         <v>346</v>
       </c>
       <c r="C34">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4636,18 +4633,18 @@
         <v>320</v>
       </c>
       <c r="C35">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s">
         <v>350</v>
       </c>
       <c r="C36">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,7 +4655,7 @@
         <v>346</v>
       </c>
       <c r="C37">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,7 +4666,7 @@
         <v>248</v>
       </c>
       <c r="C38">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4680,7 +4677,7 @@
         <v>244</v>
       </c>
       <c r="C39">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4691,7 +4688,7 @@
         <v>335</v>
       </c>
       <c r="C40">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4702,7 +4699,7 @@
         <v>332</v>
       </c>
       <c r="C41">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4724,7 +4721,7 @@
         <v>296</v>
       </c>
       <c r="C43">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4735,7 +4732,7 @@
         <v>516</v>
       </c>
       <c r="C44">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4746,7 +4743,7 @@
         <v>311</v>
       </c>
       <c r="C45">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,7 +4754,7 @@
         <v>303</v>
       </c>
       <c r="C46">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4768,7 +4765,7 @@
         <v>321</v>
       </c>
       <c r="C47">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4779,7 +4776,7 @@
         <v>303</v>
       </c>
       <c r="C48">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4790,7 +4787,7 @@
         <v>335</v>
       </c>
       <c r="C49">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4801,7 +4798,7 @@
         <v>231</v>
       </c>
       <c r="C50">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4845,7 +4842,7 @@
         <v>345</v>
       </c>
       <c r="C54">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4856,7 +4853,7 @@
         <v>327</v>
       </c>
       <c r="C55">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4867,7 +4864,7 @@
         <v>345</v>
       </c>
       <c r="C56">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4878,7 +4875,7 @@
         <v>30</v>
       </c>
       <c r="C57">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4889,7 +4886,7 @@
         <v>330</v>
       </c>
       <c r="C58">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4911,7 +4908,7 @@
         <v>30</v>
       </c>
       <c r="C60">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,7 +4919,7 @@
         <v>345</v>
       </c>
       <c r="C61">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4944,7 +4941,7 @@
         <v>30</v>
       </c>
       <c r="C63">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -4955,7 +4952,7 @@
         <v>345</v>
       </c>
       <c r="C64">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4966,29 +4963,29 @@
         <v>30</v>
       </c>
       <c r="C65">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B66" t="s">
         <v>296</v>
       </c>
       <c r="C66">
-        <v>5.0000000000000001E-3</v>
+        <v>-8.8172E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s">
         <v>351</v>
       </c>
       <c r="C67">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.36861300000000002</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4999,18 +4996,18 @@
         <v>264</v>
       </c>
       <c r="C68">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
         <v>333</v>
       </c>
       <c r="C69">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.57349E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -5021,7 +5018,7 @@
         <v>342</v>
       </c>
       <c r="C70">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -5032,7 +5029,7 @@
         <v>517</v>
       </c>
       <c r="C71">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5043,7 +5040,7 @@
         <v>329</v>
       </c>
       <c r="C72">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -5054,7 +5051,7 @@
         <v>523</v>
       </c>
       <c r="C73">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -5065,7 +5062,7 @@
         <v>335</v>
       </c>
       <c r="C74">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -5076,7 +5073,7 @@
         <v>335</v>
       </c>
       <c r="C75">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5098,7 +5095,7 @@
         <v>335</v>
       </c>
       <c r="C77">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5120,7 +5117,7 @@
         <v>345</v>
       </c>
       <c r="C79">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5131,7 +5128,7 @@
         <v>350</v>
       </c>
       <c r="C80">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5142,7 +5139,7 @@
         <v>506</v>
       </c>
       <c r="C81">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,7 +5150,7 @@
         <v>510</v>
       </c>
       <c r="C82">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -5164,7 +5161,7 @@
         <v>257</v>
       </c>
       <c r="C83">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5175,7 +5172,7 @@
         <v>527</v>
       </c>
       <c r="C84">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5197,7 +5194,7 @@
         <v>341</v>
       </c>
       <c r="C86">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5208,7 +5205,7 @@
         <v>526</v>
       </c>
       <c r="C87">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5219,7 +5216,7 @@
         <v>341</v>
       </c>
       <c r="C88">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5230,7 +5227,7 @@
         <v>349</v>
       </c>
       <c r="C89">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5241,7 +5238,7 @@
         <v>304</v>
       </c>
       <c r="C90">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5252,7 +5249,7 @@
         <v>321</v>
       </c>
       <c r="C91">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5274,7 +5271,7 @@
         <v>510</v>
       </c>
       <c r="C93">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5285,7 +5282,7 @@
         <v>154</v>
       </c>
       <c r="C94">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,7 +5293,7 @@
         <v>270</v>
       </c>
       <c r="C95">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5329,7 +5326,7 @@
         <v>511</v>
       </c>
       <c r="C98">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5351,7 +5348,7 @@
         <v>325</v>
       </c>
       <c r="C100">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -5362,7 +5359,7 @@
         <v>345</v>
       </c>
       <c r="C101">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -5373,7 +5370,7 @@
         <v>280</v>
       </c>
       <c r="C102">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5384,7 +5381,7 @@
         <v>313</v>
       </c>
       <c r="C103">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -5395,7 +5392,7 @@
         <v>286</v>
       </c>
       <c r="C104">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -5406,7 +5403,7 @@
         <v>276</v>
       </c>
       <c r="C105">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -5428,7 +5425,7 @@
         <v>287</v>
       </c>
       <c r="C107">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -5439,7 +5436,7 @@
         <v>309</v>
       </c>
       <c r="C108">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -5450,7 +5447,7 @@
         <v>332</v>
       </c>
       <c r="C109">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -5461,7 +5458,7 @@
         <v>324</v>
       </c>
       <c r="C110">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -5472,7 +5469,7 @@
         <v>51</v>
       </c>
       <c r="C111">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -5483,7 +5480,7 @@
         <v>253</v>
       </c>
       <c r="C112">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5494,7 +5491,7 @@
         <v>525</v>
       </c>
       <c r="C113">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -5505,7 +5502,7 @@
         <v>507</v>
       </c>
       <c r="C114">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5516,7 +5513,7 @@
         <v>287</v>
       </c>
       <c r="C115">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5527,7 +5524,7 @@
         <v>287</v>
       </c>
       <c r="C116">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5549,7 +5546,7 @@
         <v>304</v>
       </c>
       <c r="C118">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5557,7 @@
         <v>522</v>
       </c>
       <c r="C119">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -5582,7 +5579,7 @@
         <v>513</v>
       </c>
       <c r="C121">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -5593,7 +5590,7 @@
         <v>291</v>
       </c>
       <c r="C122">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5626,7 +5623,7 @@
         <v>301</v>
       </c>
       <c r="C125">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -5637,7 +5634,7 @@
         <v>331</v>
       </c>
       <c r="C126">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -5656,21 +5653,21 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="C128">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="C129">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -5681,7 +5678,7 @@
         <v>290</v>
       </c>
       <c r="C130">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -5703,7 +5700,7 @@
         <v>313</v>
       </c>
       <c r="C132">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -5714,7 +5711,7 @@
         <v>301</v>
       </c>
       <c r="C133">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -5736,7 +5733,7 @@
         <v>274</v>
       </c>
       <c r="C135">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -5747,7 +5744,7 @@
         <v>346</v>
       </c>
       <c r="C136">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -5758,7 +5755,7 @@
         <v>248</v>
       </c>
       <c r="C137">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -5769,7 +5766,7 @@
         <v>293</v>
       </c>
       <c r="C138">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -5802,7 +5799,7 @@
         <v>51</v>
       </c>
       <c r="C141">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -5813,7 +5810,7 @@
         <v>510</v>
       </c>
       <c r="C142">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -5824,7 +5821,7 @@
         <v>247</v>
       </c>
       <c r="C143">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -5835,7 +5832,7 @@
         <v>312</v>
       </c>
       <c r="C144">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -5846,7 +5843,7 @@
         <v>515</v>
       </c>
       <c r="C145">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -5857,7 +5854,7 @@
         <v>248</v>
       </c>
       <c r="C146">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -5865,10 +5862,10 @@
         <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>508</v>
+        <v>248</v>
       </c>
       <c r="C147">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -5876,32 +5873,32 @@
         <v>259</v>
       </c>
       <c r="B148" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="C148">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C149">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.13222300000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>508</v>
       </c>
       <c r="C150">
-        <v>-0.13222300000000001</v>
+        <v>-6.9176500000000002E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -5912,7 +5909,7 @@
         <v>270</v>
       </c>
       <c r="C151">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -5923,7 +5920,7 @@
         <v>505</v>
       </c>
       <c r="C152">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -5934,7 +5931,7 @@
         <v>346</v>
       </c>
       <c r="C153">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -5945,7 +5942,7 @@
         <v>51</v>
       </c>
       <c r="C154">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -5956,7 +5953,7 @@
         <v>346</v>
       </c>
       <c r="C155">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -5967,7 +5964,7 @@
         <v>280</v>
       </c>
       <c r="C156">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -5978,7 +5975,7 @@
         <v>331</v>
       </c>
       <c r="C157">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -5989,7 +5986,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -6000,7 +5997,7 @@
         <v>295</v>
       </c>
       <c r="C159">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -6011,7 +6008,7 @@
         <v>234</v>
       </c>
       <c r="C160">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -6022,7 +6019,7 @@
         <v>295</v>
       </c>
       <c r="C161">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -6033,7 +6030,7 @@
         <v>278</v>
       </c>
       <c r="C162">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -6055,7 +6052,7 @@
         <v>51</v>
       </c>
       <c r="C164">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -6066,7 +6063,7 @@
         <v>289</v>
       </c>
       <c r="C165">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -6088,7 +6085,7 @@
         <v>282</v>
       </c>
       <c r="C167">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -6099,7 +6096,7 @@
         <v>154</v>
       </c>
       <c r="C168">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -6110,7 +6107,7 @@
         <v>289</v>
       </c>
       <c r="C169">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -6132,7 +6129,7 @@
         <v>292</v>
       </c>
       <c r="C171">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -6143,7 +6140,7 @@
         <v>512</v>
       </c>
       <c r="C172">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -6154,18 +6151,18 @@
         <v>92</v>
       </c>
       <c r="C173">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
         <v>509</v>
       </c>
       <c r="C174">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -6176,7 +6173,7 @@
         <v>277</v>
       </c>
       <c r="C175">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -6187,7 +6184,7 @@
         <v>280</v>
       </c>
       <c r="C176">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -6209,7 +6206,7 @@
         <v>272</v>
       </c>
       <c r="C178">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -6231,7 +6228,7 @@
         <v>254</v>
       </c>
       <c r="C180">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -6253,7 +6250,7 @@
         <v>297</v>
       </c>
       <c r="C182">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6264,7 +6261,7 @@
         <v>51</v>
       </c>
       <c r="C183">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -6275,7 +6272,7 @@
         <v>288</v>
       </c>
       <c r="C184">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -6286,7 +6283,7 @@
         <v>291</v>
       </c>
       <c r="C185">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -6319,7 +6316,7 @@
         <v>92</v>
       </c>
       <c r="C188">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -6330,7 +6327,7 @@
         <v>299</v>
       </c>
       <c r="C189">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -6341,7 +6338,7 @@
         <v>300</v>
       </c>
       <c r="C190">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -6352,7 +6349,7 @@
         <v>294</v>
       </c>
       <c r="C191">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -6363,7 +6360,7 @@
         <v>510</v>
       </c>
       <c r="C192">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -6385,7 +6382,7 @@
         <v>240</v>
       </c>
       <c r="C194">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -6396,7 +6393,7 @@
         <v>30</v>
       </c>
       <c r="C195">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -6407,7 +6404,7 @@
         <v>295</v>
       </c>
       <c r="C196">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -6418,7 +6415,7 @@
         <v>298</v>
       </c>
       <c r="C197">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -6440,7 +6437,7 @@
         <v>30</v>
       </c>
       <c r="C199">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -6451,7 +6448,7 @@
         <v>30</v>
       </c>
       <c r="C200">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -6473,7 +6470,7 @@
         <v>302</v>
       </c>
       <c r="C202">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -6484,7 +6481,7 @@
         <v>309</v>
       </c>
       <c r="C203">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -6495,7 +6492,7 @@
         <v>518</v>
       </c>
       <c r="C204">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -6506,7 +6503,7 @@
         <v>306</v>
       </c>
       <c r="C205">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -6517,7 +6514,7 @@
         <v>306</v>
       </c>
       <c r="C206">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -6528,7 +6525,7 @@
         <v>321</v>
       </c>
       <c r="C207">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -6539,7 +6536,7 @@
         <v>294</v>
       </c>
       <c r="C208">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -6550,7 +6547,7 @@
         <v>257</v>
       </c>
       <c r="C209">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,7 +6558,7 @@
         <v>304</v>
       </c>
       <c r="C210">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -6572,7 +6569,7 @@
         <v>30</v>
       </c>
       <c r="C211">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -6583,7 +6580,7 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -6594,7 +6591,7 @@
         <v>247</v>
       </c>
       <c r="C213">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -6605,7 +6602,7 @@
         <v>297</v>
       </c>
       <c r="C214">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -6616,7 +6613,7 @@
         <v>271</v>
       </c>
       <c r="C215">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -6627,7 +6624,7 @@
         <v>306</v>
       </c>
       <c r="C216">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -6638,7 +6635,7 @@
         <v>304</v>
       </c>
       <c r="C217">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -6649,7 +6646,7 @@
         <v>307</v>
       </c>
       <c r="C218">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -6660,7 +6657,7 @@
         <v>295</v>
       </c>
       <c r="C219">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -6671,7 +6668,7 @@
         <v>304</v>
       </c>
       <c r="C220">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -6682,7 +6679,7 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -6690,21 +6687,21 @@
         <v>71</v>
       </c>
       <c r="B222" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C222">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B223" t="s">
         <v>521</v>
       </c>
       <c r="C223">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -6712,21 +6709,21 @@
         <v>72</v>
       </c>
       <c r="B224" t="s">
-        <v>521</v>
+        <v>305</v>
       </c>
       <c r="C224">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C225">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -6734,10 +6731,10 @@
         <v>73</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C226">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -6745,10 +6742,10 @@
         <v>73</v>
       </c>
       <c r="B227" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C227">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -6756,32 +6753,32 @@
         <v>73</v>
       </c>
       <c r="B228" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C228">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B229" t="s">
-        <v>301</v>
+        <v>520</v>
       </c>
       <c r="C229">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.152832</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C230">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -6789,10 +6786,10 @@
         <v>88</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C231">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -6803,7 +6800,7 @@
         <v>301</v>
       </c>
       <c r="C232">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -6825,7 +6822,7 @@
         <v>524</v>
       </c>
       <c r="C234">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -6836,7 +6833,7 @@
         <v>304</v>
       </c>
       <c r="C235">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -6847,7 +6844,7 @@
         <v>270</v>
       </c>
       <c r="C236">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -6858,7 +6855,7 @@
         <v>301</v>
       </c>
       <c r="C237">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -6869,7 +6866,7 @@
         <v>304</v>
       </c>
       <c r="C238">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -6891,7 +6888,7 @@
         <v>324</v>
       </c>
       <c r="C240">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -6902,7 +6899,7 @@
         <v>301</v>
       </c>
       <c r="C241">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -6913,7 +6910,7 @@
         <v>346</v>
       </c>
       <c r="C242">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -6924,18 +6921,18 @@
         <v>926</v>
       </c>
       <c r="C243">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>790</v>
+        <v>574</v>
       </c>
       <c r="B244" t="s">
-        <v>992</v>
+        <v>285</v>
       </c>
       <c r="C244">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -6943,43 +6940,43 @@
         <v>574</v>
       </c>
       <c r="B245" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C245">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>574</v>
+        <v>805</v>
       </c>
       <c r="B246" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="C246">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>805</v>
+        <v>908</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="C247">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>908</v>
+        <v>1003</v>
       </c>
       <c r="B248" t="s">
-        <v>520</v>
+        <v>992</v>
       </c>
       <c r="C248">
-        <v>5.0000000000000001E-3</v>
+        <v>-7.8988900000000004E-3</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -6990,7 +6987,7 @@
         <v>346</v>
       </c>
       <c r="C249">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -7023,7 +7020,7 @@
         <v>289</v>
       </c>
       <c r="C252">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -7034,7 +7031,7 @@
         <v>934</v>
       </c>
       <c r="C253">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -7045,7 +7042,7 @@
         <v>277</v>
       </c>
       <c r="C254">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -7056,7 +7053,7 @@
         <v>289</v>
       </c>
       <c r="C255">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -7067,7 +7064,7 @@
         <v>304</v>
       </c>
       <c r="C256">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -7089,7 +7086,7 @@
         <v>628</v>
       </c>
       <c r="C258">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -7100,7 +7097,7 @@
         <v>971</v>
       </c>
       <c r="C259">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -7111,29 +7108,29 @@
         <v>289</v>
       </c>
       <c r="C260">
-        <v>5.0000000000000001E-3</v>
+        <v>-7.9754599999999995E-2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>754</v>
+        <v>917</v>
       </c>
       <c r="B261" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="C261">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>917</v>
+        <v>1010</v>
       </c>
       <c r="B262" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="C262">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.118421</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -7155,7 +7152,7 @@
         <v>660</v>
       </c>
       <c r="C264">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -7177,7 +7174,7 @@
         <v>288</v>
       </c>
       <c r="C266">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -7188,7 +7185,7 @@
         <v>874</v>
       </c>
       <c r="C267">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -7199,7 +7196,7 @@
         <v>899</v>
       </c>
       <c r="C268">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -7210,7 +7207,7 @@
         <v>289</v>
       </c>
       <c r="C269">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -7221,7 +7218,7 @@
         <v>289</v>
       </c>
       <c r="C270">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -7232,7 +7229,7 @@
         <v>289</v>
       </c>
       <c r="C271">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -7243,7 +7240,7 @@
         <v>786</v>
       </c>
       <c r="C272">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -7254,7 +7251,7 @@
         <v>296</v>
       </c>
       <c r="C273">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -7276,7 +7273,7 @@
         <v>270</v>
       </c>
       <c r="C275">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -7309,7 +7306,7 @@
         <v>525</v>
       </c>
       <c r="C278">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -7320,7 +7317,7 @@
         <v>289</v>
       </c>
       <c r="C279">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -7331,7 +7328,7 @@
         <v>296</v>
       </c>
       <c r="C280">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -7342,7 +7339,7 @@
         <v>308</v>
       </c>
       <c r="C281">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -7353,7 +7350,7 @@
         <v>298</v>
       </c>
       <c r="C282">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -7364,7 +7361,7 @@
         <v>279</v>
       </c>
       <c r="C283">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -7375,7 +7372,7 @@
         <v>719</v>
       </c>
       <c r="C284">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -7386,7 +7383,7 @@
         <v>628</v>
       </c>
       <c r="C285">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -7397,7 +7394,7 @@
         <v>719</v>
       </c>
       <c r="C286">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -7408,7 +7405,7 @@
         <v>292</v>
       </c>
       <c r="C287">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -7416,10 +7413,10 @@
         <v>629</v>
       </c>
       <c r="B288" t="s">
-        <v>774</v>
+        <v>525</v>
       </c>
       <c r="C288">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -7427,32 +7424,32 @@
         <v>629</v>
       </c>
       <c r="B289" t="s">
-        <v>525</v>
+        <v>308</v>
       </c>
       <c r="C289">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>629</v>
+        <v>745</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>746</v>
       </c>
       <c r="C290">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>629</v>
+        <v>745</v>
       </c>
       <c r="B291" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="C291">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -7460,10 +7457,10 @@
         <v>745</v>
       </c>
       <c r="B292" t="s">
-        <v>746</v>
+        <v>525</v>
       </c>
       <c r="C292">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -7471,10 +7468,10 @@
         <v>745</v>
       </c>
       <c r="B293" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="C293">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -7482,32 +7479,32 @@
         <v>745</v>
       </c>
       <c r="B294" t="s">
-        <v>525</v>
+        <v>968</v>
       </c>
       <c r="C294">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B295" t="s">
-        <v>154</v>
+        <v>761</v>
       </c>
       <c r="C295">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B296" t="s">
-        <v>968</v>
+        <v>292</v>
       </c>
       <c r="C296">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -7515,10 +7512,10 @@
         <v>760</v>
       </c>
       <c r="B297" t="s">
-        <v>761</v>
+        <v>231</v>
       </c>
       <c r="C297">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -7526,10 +7523,10 @@
         <v>760</v>
       </c>
       <c r="B298" t="s">
-        <v>292</v>
+        <v>830</v>
       </c>
       <c r="C298">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -7537,10 +7534,10 @@
         <v>760</v>
       </c>
       <c r="B299" t="s">
-        <v>231</v>
+        <v>922</v>
       </c>
       <c r="C299">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -7548,10 +7545,10 @@
         <v>760</v>
       </c>
       <c r="B300" t="s">
-        <v>830</v>
+        <v>336</v>
       </c>
       <c r="C300">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -7559,32 +7556,32 @@
         <v>760</v>
       </c>
       <c r="B301" t="s">
-        <v>922</v>
+        <v>154</v>
       </c>
       <c r="C301">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>760</v>
+        <v>959</v>
       </c>
       <c r="B302" t="s">
-        <v>336</v>
+        <v>774</v>
       </c>
       <c r="C302">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>760</v>
+        <v>959</v>
       </c>
       <c r="B303" t="s">
         <v>154</v>
       </c>
       <c r="C303">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -7592,10 +7589,10 @@
         <v>959</v>
       </c>
       <c r="B304" t="s">
-        <v>154</v>
+        <v>971</v>
       </c>
       <c r="C304">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -7603,10 +7600,10 @@
         <v>959</v>
       </c>
       <c r="B305" t="s">
-        <v>971</v>
+        <v>332</v>
       </c>
       <c r="C305">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -7617,7 +7614,7 @@
         <v>537</v>
       </c>
       <c r="C306">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -7628,7 +7625,7 @@
         <v>565</v>
       </c>
       <c r="C307">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -7639,7 +7636,7 @@
         <v>614</v>
       </c>
       <c r="C308">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -7650,7 +7647,7 @@
         <v>651</v>
       </c>
       <c r="C309">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -7661,7 +7658,7 @@
         <v>661</v>
       </c>
       <c r="C310">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -7672,7 +7669,7 @@
         <v>669</v>
       </c>
       <c r="C311">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -7683,7 +7680,7 @@
         <v>680</v>
       </c>
       <c r="C312">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -7694,7 +7691,7 @@
         <v>688</v>
       </c>
       <c r="C313">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -7716,7 +7713,7 @@
         <v>694</v>
       </c>
       <c r="C315">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -7727,7 +7724,7 @@
         <v>695</v>
       </c>
       <c r="C316">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -7738,7 +7735,7 @@
         <v>273</v>
       </c>
       <c r="C317">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -7749,7 +7746,7 @@
         <v>279</v>
       </c>
       <c r="C318">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -7760,7 +7757,7 @@
         <v>713</v>
       </c>
       <c r="C319">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -7782,7 +7779,7 @@
         <v>737</v>
       </c>
       <c r="C321">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -7793,7 +7790,7 @@
         <v>748</v>
       </c>
       <c r="C322">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -7804,7 +7801,7 @@
         <v>753</v>
       </c>
       <c r="C323">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -7837,7 +7834,7 @@
         <v>788</v>
       </c>
       <c r="C326">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -7848,7 +7845,7 @@
         <v>789</v>
       </c>
       <c r="C327">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -7859,7 +7856,7 @@
         <v>793</v>
       </c>
       <c r="C328">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -7870,7 +7867,7 @@
         <v>794</v>
       </c>
       <c r="C329">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -7881,7 +7878,7 @@
         <v>513</v>
       </c>
       <c r="C330">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -7892,7 +7889,7 @@
         <v>798</v>
       </c>
       <c r="C331">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -7903,7 +7900,7 @@
         <v>803</v>
       </c>
       <c r="C332">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -7914,7 +7911,7 @@
         <v>840</v>
       </c>
       <c r="C333">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -7925,7 +7922,7 @@
         <v>847</v>
       </c>
       <c r="C334">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -7947,7 +7944,7 @@
         <v>858</v>
       </c>
       <c r="C336">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -7958,7 +7955,7 @@
         <v>861</v>
       </c>
       <c r="C337">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -7969,7 +7966,7 @@
         <v>272</v>
       </c>
       <c r="C338">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -7980,7 +7977,7 @@
         <v>297</v>
       </c>
       <c r="C339">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -7991,7 +7988,7 @@
         <v>518</v>
       </c>
       <c r="C340">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -8002,7 +7999,7 @@
         <v>921</v>
       </c>
       <c r="C341">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,7 +8010,7 @@
         <v>295</v>
       </c>
       <c r="C342">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -8024,7 +8021,7 @@
         <v>523</v>
       </c>
       <c r="C343">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -8035,7 +8032,7 @@
         <v>945</v>
       </c>
       <c r="C344">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -8046,7 +8043,7 @@
         <v>946</v>
       </c>
       <c r="C345">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -8057,7 +8054,7 @@
         <v>961</v>
       </c>
       <c r="C346">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -8068,7 +8065,7 @@
         <v>967</v>
       </c>
       <c r="C347">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -8090,7 +8087,7 @@
         <v>989</v>
       </c>
       <c r="C349">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -8101,7 +8098,7 @@
         <v>313</v>
       </c>
       <c r="C350">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -8112,7 +8109,7 @@
         <v>537</v>
       </c>
       <c r="C351">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8123,7 +8120,7 @@
         <v>600</v>
       </c>
       <c r="C352">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -8134,7 +8131,7 @@
         <v>695</v>
       </c>
       <c r="C353">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -8145,7 +8142,7 @@
         <v>761</v>
       </c>
       <c r="C354">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -8156,7 +8153,7 @@
         <v>787</v>
       </c>
       <c r="C355">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -8178,7 +8175,7 @@
         <v>680</v>
       </c>
       <c r="C357">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -8211,7 +8208,7 @@
         <v>789</v>
       </c>
       <c r="C360">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -8222,7 +8219,7 @@
         <v>798</v>
       </c>
       <c r="C361">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -8244,7 +8241,7 @@
         <v>861</v>
       </c>
       <c r="C363">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -8266,7 +8263,7 @@
         <v>525</v>
       </c>
       <c r="C365">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -8277,7 +8274,7 @@
         <v>940</v>
       </c>
       <c r="C366">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -8288,7 +8285,7 @@
         <v>946</v>
       </c>
       <c r="C367">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -8299,7 +8296,7 @@
         <v>973</v>
       </c>
       <c r="C368">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -8310,7 +8307,7 @@
         <v>313</v>
       </c>
       <c r="C369">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -8321,7 +8318,7 @@
         <v>565</v>
       </c>
       <c r="C370">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -8332,7 +8329,7 @@
         <v>282</v>
       </c>
       <c r="C371">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -8343,7 +8340,7 @@
         <v>694</v>
       </c>
       <c r="C372">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -8354,7 +8351,7 @@
         <v>333</v>
       </c>
       <c r="C373">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -8365,7 +8362,7 @@
         <v>731</v>
       </c>
       <c r="C374">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -8376,7 +8373,7 @@
         <v>735</v>
       </c>
       <c r="C375">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -8387,7 +8384,7 @@
         <v>327</v>
       </c>
       <c r="C376">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -8398,7 +8395,7 @@
         <v>777</v>
       </c>
       <c r="C377">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -8409,7 +8406,7 @@
         <v>231</v>
       </c>
       <c r="C378">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -8420,7 +8417,7 @@
         <v>787</v>
       </c>
       <c r="C379">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -8431,7 +8428,7 @@
         <v>798</v>
       </c>
       <c r="C380">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -8442,7 +8439,7 @@
         <v>824</v>
       </c>
       <c r="C381">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -8453,7 +8450,7 @@
         <v>834</v>
       </c>
       <c r="C382">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -8464,7 +8461,7 @@
         <v>846</v>
       </c>
       <c r="C383">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -8475,7 +8472,7 @@
         <v>505</v>
       </c>
       <c r="C384">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -8486,7 +8483,7 @@
         <v>859</v>
       </c>
       <c r="C385">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -8497,7 +8494,7 @@
         <v>861</v>
       </c>
       <c r="C386">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -8508,7 +8505,7 @@
         <v>871</v>
       </c>
       <c r="C387">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -8519,7 +8516,7 @@
         <v>883</v>
       </c>
       <c r="C388">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -8530,7 +8527,7 @@
         <v>884</v>
       </c>
       <c r="C389">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -8541,7 +8538,7 @@
         <v>927</v>
       </c>
       <c r="C390">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -8552,7 +8549,7 @@
         <v>940</v>
       </c>
       <c r="C391">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -8563,7 +8560,7 @@
         <v>968</v>
       </c>
       <c r="C392">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -8574,7 +8571,7 @@
         <v>253</v>
       </c>
       <c r="C393">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -8585,7 +8582,7 @@
         <v>973</v>
       </c>
       <c r="C394">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -8596,7 +8593,7 @@
         <v>974</v>
       </c>
       <c r="C395">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -8607,7 +8604,7 @@
         <v>983</v>
       </c>
       <c r="C396">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -8618,7 +8615,7 @@
         <v>989</v>
       </c>
       <c r="C397">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -8629,7 +8626,7 @@
         <v>669</v>
       </c>
       <c r="C398">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -8640,7 +8637,7 @@
         <v>698</v>
       </c>
       <c r="C399">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -8651,7 +8648,7 @@
         <v>724</v>
       </c>
       <c r="C400">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -8662,7 +8659,7 @@
         <v>333</v>
       </c>
       <c r="C401">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -8673,7 +8670,7 @@
         <v>738</v>
       </c>
       <c r="C402">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -8695,7 +8692,7 @@
         <v>746</v>
       </c>
       <c r="C404">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -8706,7 +8703,7 @@
         <v>761</v>
       </c>
       <c r="C405">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -8717,7 +8714,7 @@
         <v>327</v>
       </c>
       <c r="C406">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -8728,7 +8725,7 @@
         <v>834</v>
       </c>
       <c r="C407">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -8739,7 +8736,7 @@
         <v>883</v>
       </c>
       <c r="C408">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8750,7 +8747,7 @@
         <v>526</v>
       </c>
       <c r="C409">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -8761,7 +8758,7 @@
         <v>947</v>
       </c>
       <c r="C410">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -8772,7 +8769,7 @@
         <v>949</v>
       </c>
       <c r="C411">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8783,7 +8780,7 @@
         <v>257</v>
       </c>
       <c r="C412">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8794,7 +8791,7 @@
         <v>667</v>
       </c>
       <c r="C413">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8805,7 +8802,7 @@
         <v>669</v>
       </c>
       <c r="C414">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -8816,7 +8813,7 @@
         <v>698</v>
       </c>
       <c r="C415">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8827,7 +8824,7 @@
         <v>841</v>
       </c>
       <c r="C416">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -8838,7 +8835,7 @@
         <v>843</v>
       </c>
       <c r="C417">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -8849,7 +8846,7 @@
         <v>866</v>
       </c>
       <c r="C418">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8860,7 +8857,7 @@
         <v>887</v>
       </c>
       <c r="C419">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -8871,7 +8868,7 @@
         <v>947</v>
       </c>
       <c r="C420">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -8882,7 +8879,7 @@
         <v>253</v>
       </c>
       <c r="C421">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -8893,7 +8890,7 @@
         <v>306</v>
       </c>
       <c r="C422">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -8904,7 +8901,7 @@
         <v>997</v>
       </c>
       <c r="C423">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -8915,7 +8912,7 @@
         <v>306</v>
       </c>
       <c r="C424">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -8926,7 +8923,7 @@
         <v>876</v>
       </c>
       <c r="C425">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -8937,7 +8934,7 @@
         <v>761</v>
       </c>
       <c r="C426">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -9003,7 +9000,7 @@
         <v>321</v>
       </c>
       <c r="C432">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -9014,7 +9011,7 @@
         <v>320</v>
       </c>
       <c r="C433">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -9025,7 +9022,7 @@
         <v>298</v>
       </c>
       <c r="C434">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -9036,7 +9033,7 @@
         <v>888</v>
       </c>
       <c r="C435">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -9047,7 +9044,7 @@
         <v>303</v>
       </c>
       <c r="C436">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -9058,7 +9055,7 @@
         <v>667</v>
       </c>
       <c r="C437">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -9069,7 +9066,7 @@
         <v>684</v>
       </c>
       <c r="C438">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -9080,7 +9077,7 @@
         <v>713</v>
       </c>
       <c r="C439">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -9091,7 +9088,7 @@
         <v>333</v>
       </c>
       <c r="C440">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -9102,7 +9099,7 @@
         <v>796</v>
       </c>
       <c r="C441">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -9113,7 +9110,7 @@
         <v>831</v>
       </c>
       <c r="C442">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -9124,7 +9121,7 @@
         <v>834</v>
       </c>
       <c r="C443">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -9135,7 +9132,7 @@
         <v>843</v>
       </c>
       <c r="C444">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -9146,7 +9143,7 @@
         <v>858</v>
       </c>
       <c r="C445">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9157,7 +9154,7 @@
         <v>861</v>
       </c>
       <c r="C446">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -9168,7 +9165,7 @@
         <v>272</v>
       </c>
       <c r="C447">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -9179,7 +9176,7 @@
         <v>989</v>
       </c>
       <c r="C448">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -9190,7 +9187,7 @@
         <v>997</v>
       </c>
       <c r="C449">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -9201,7 +9198,7 @@
         <v>272</v>
       </c>
       <c r="C450">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -9212,7 +9209,7 @@
         <v>302</v>
       </c>
       <c r="C451">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -9223,7 +9220,7 @@
         <v>843</v>
       </c>
       <c r="C452">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -9245,7 +9242,7 @@
         <v>997</v>
       </c>
       <c r="C454">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -9256,7 +9253,7 @@
         <v>537</v>
       </c>
       <c r="C455">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -9267,7 +9264,7 @@
         <v>507</v>
       </c>
       <c r="C456">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -9278,7 +9275,7 @@
         <v>671</v>
       </c>
       <c r="C457">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -9289,7 +9286,7 @@
         <v>270</v>
       </c>
       <c r="C458">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9300,7 +9297,7 @@
         <v>684</v>
       </c>
       <c r="C459">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -9311,7 +9308,7 @@
         <v>213</v>
       </c>
       <c r="C460">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -9322,7 +9319,7 @@
         <v>312</v>
       </c>
       <c r="C461">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9333,7 +9330,7 @@
         <v>858</v>
       </c>
       <c r="C462">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9344,7 +9341,7 @@
         <v>922</v>
       </c>
       <c r="C463">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9355,7 +9352,7 @@
         <v>289</v>
       </c>
       <c r="C464">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9366,7 +9363,7 @@
         <v>282</v>
       </c>
       <c r="C465">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9374,10 +9371,10 @@
         <v>624</v>
       </c>
       <c r="B466" t="s">
-        <v>761</v>
+        <v>835</v>
       </c>
       <c r="C466">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9385,10 +9382,10 @@
         <v>624</v>
       </c>
       <c r="B467" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="C467">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9396,21 +9393,21 @@
         <v>624</v>
       </c>
       <c r="B468" t="s">
-        <v>858</v>
+        <v>949</v>
       </c>
       <c r="C468">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>624</v>
+        <v>779</v>
       </c>
       <c r="B469" t="s">
-        <v>949</v>
+        <v>231</v>
       </c>
       <c r="C469">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9418,21 +9415,21 @@
         <v>779</v>
       </c>
       <c r="B470" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="C470">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>779</v>
+        <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>320</v>
+        <v>649</v>
       </c>
       <c r="C471">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9440,10 +9437,10 @@
         <v>648</v>
       </c>
       <c r="B472" t="s">
-        <v>649</v>
+        <v>761</v>
       </c>
       <c r="C472">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,7 +9462,7 @@
         <v>289</v>
       </c>
       <c r="C474">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9476,7 +9473,7 @@
         <v>696</v>
       </c>
       <c r="C475">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9487,18 +9484,18 @@
         <v>761</v>
       </c>
       <c r="C476">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B477" t="s">
-        <v>976</v>
+        <v>542</v>
       </c>
       <c r="C477">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9506,10 +9503,10 @@
         <v>541</v>
       </c>
       <c r="B478" t="s">
-        <v>542</v>
+        <v>270</v>
       </c>
       <c r="C478">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.27954800000000002</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9517,10 +9514,10 @@
         <v>541</v>
       </c>
       <c r="B479" t="s">
-        <v>270</v>
+        <v>713</v>
       </c>
       <c r="C479">
-        <v>-0.27954800000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9528,10 +9525,10 @@
         <v>541</v>
       </c>
       <c r="B480" t="s">
-        <v>713</v>
+        <v>344</v>
       </c>
       <c r="C480">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9539,10 +9536,10 @@
         <v>541</v>
       </c>
       <c r="B481" t="s">
-        <v>344</v>
+        <v>976</v>
       </c>
       <c r="C481">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9564,7 +9561,7 @@
         <v>344</v>
       </c>
       <c r="C483">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9575,7 +9572,7 @@
         <v>279</v>
       </c>
       <c r="C484">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9586,7 +9583,7 @@
         <v>831</v>
       </c>
       <c r="C485">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9597,7 +9594,7 @@
         <v>298</v>
       </c>
       <c r="C486">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9608,7 +9605,7 @@
         <v>279</v>
       </c>
       <c r="C487">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9619,7 +9616,7 @@
         <v>849</v>
       </c>
       <c r="C488">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9630,7 +9627,7 @@
         <v>308</v>
       </c>
       <c r="C489">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9641,7 +9638,7 @@
         <v>282</v>
       </c>
       <c r="C490">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9652,7 +9649,7 @@
         <v>753</v>
       </c>
       <c r="C491">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9663,7 +9660,7 @@
         <v>342</v>
       </c>
       <c r="C492">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,7 +9671,7 @@
         <v>898</v>
       </c>
       <c r="C493">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9685,7 +9682,7 @@
         <v>521</v>
       </c>
       <c r="C494">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9696,7 +9693,7 @@
         <v>713</v>
       </c>
       <c r="C495">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9707,7 +9704,7 @@
         <v>893</v>
       </c>
       <c r="C496">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9718,7 +9715,7 @@
         <v>537</v>
       </c>
       <c r="C497">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9729,7 +9726,7 @@
         <v>279</v>
       </c>
       <c r="C498">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9740,7 +9737,7 @@
         <v>858</v>
       </c>
       <c r="C499">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9751,7 +9748,7 @@
         <v>861</v>
       </c>
       <c r="C500">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9762,7 +9759,7 @@
         <v>517</v>
       </c>
       <c r="C501">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9773,7 +9770,7 @@
         <v>308</v>
       </c>
       <c r="C502">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9784,7 +9781,7 @@
         <v>293</v>
       </c>
       <c r="C503">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9795,7 +9792,7 @@
         <v>282</v>
       </c>
       <c r="C504">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9806,7 +9803,7 @@
         <v>515</v>
       </c>
       <c r="C505">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9839,7 +9836,7 @@
         <v>523</v>
       </c>
       <c r="C508">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9869,10 +9866,10 @@
         <v>715</v>
       </c>
       <c r="B511" t="s">
-        <v>297</v>
+        <v>948</v>
       </c>
       <c r="C511">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9880,10 +9877,10 @@
         <v>715</v>
       </c>
       <c r="B512" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="C512">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.223382</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9891,21 +9888,21 @@
         <v>715</v>
       </c>
       <c r="B513" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="C513">
-        <v>-0.223382</v>
+        <v>-0.25832100000000002</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>715</v>
+        <v>972</v>
       </c>
       <c r="B514" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C514">
-        <v>-0.25832100000000002</v>
+        <v>-0.22661400000000001</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9913,21 +9910,21 @@
         <v>972</v>
       </c>
       <c r="B515" t="s">
-        <v>971</v>
+        <v>308</v>
       </c>
       <c r="C515">
-        <v>-0.22661400000000001</v>
+        <v>-0.17835500000000001</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>972</v>
+        <v>851</v>
       </c>
       <c r="B516" t="s">
-        <v>308</v>
+        <v>850</v>
       </c>
       <c r="C516">
-        <v>-0.17835500000000001</v>
+        <v>-4.0039999999999999E-2</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9935,10 +9932,10 @@
         <v>851</v>
       </c>
       <c r="B517" t="s">
-        <v>850</v>
+        <v>297</v>
       </c>
       <c r="C517">
-        <v>-4.0039999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,7 +9946,7 @@
         <v>324</v>
       </c>
       <c r="C518">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -9960,7 +9957,7 @@
         <v>628</v>
       </c>
       <c r="C519">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,7 +9968,7 @@
         <v>808</v>
       </c>
       <c r="C520">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9982,7 +9979,7 @@
         <v>926</v>
       </c>
       <c r="C521">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,7 +9990,7 @@
         <v>549</v>
       </c>
       <c r="C522">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -10004,7 +10001,7 @@
         <v>294</v>
       </c>
       <c r="C523">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -10015,7 +10012,7 @@
         <v>326</v>
       </c>
       <c r="C524">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -10026,7 +10023,7 @@
         <v>213</v>
       </c>
       <c r="C525">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -10037,7 +10034,7 @@
         <v>713</v>
       </c>
       <c r="C526">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,7 +10045,7 @@
         <v>299</v>
       </c>
       <c r="C527">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -10059,7 +10056,7 @@
         <v>344</v>
       </c>
       <c r="C528">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -10070,7 +10067,7 @@
         <v>305</v>
       </c>
       <c r="C529">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -10081,7 +10078,7 @@
         <v>271</v>
       </c>
       <c r="C530">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10103,7 +10100,7 @@
         <v>999</v>
       </c>
       <c r="C532">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10114,7 +10111,7 @@
         <v>549</v>
       </c>
       <c r="C533">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10125,7 +10122,7 @@
         <v>289</v>
       </c>
       <c r="C534">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10136,7 +10133,7 @@
         <v>865</v>
       </c>
       <c r="C535">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -10158,7 +10155,7 @@
         <v>866</v>
       </c>
       <c r="C537">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -10169,7 +10166,7 @@
         <v>336</v>
       </c>
       <c r="C538">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -10180,7 +10177,7 @@
         <v>731</v>
       </c>
       <c r="C539">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -10191,7 +10188,7 @@
         <v>798</v>
       </c>
       <c r="C540">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -10202,7 +10199,7 @@
         <v>834</v>
       </c>
       <c r="C541">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -10213,7 +10210,7 @@
         <v>853</v>
       </c>
       <c r="C542">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -10224,7 +10221,7 @@
         <v>866</v>
       </c>
       <c r="C543">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -10235,7 +10232,7 @@
         <v>907</v>
       </c>
       <c r="C544">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -10246,7 +10243,7 @@
         <v>295</v>
       </c>
       <c r="C545">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,7 +10254,7 @@
         <v>351</v>
       </c>
       <c r="C546">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -10268,7 +10265,7 @@
         <v>746</v>
       </c>
       <c r="C547">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -10279,7 +10276,7 @@
         <v>296</v>
       </c>
       <c r="C548">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -10290,7 +10287,7 @@
         <v>514</v>
       </c>
       <c r="C549">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -10301,7 +10298,7 @@
         <v>343</v>
       </c>
       <c r="C550">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -10312,7 +10309,7 @@
         <v>894</v>
       </c>
       <c r="C551">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -10323,7 +10320,7 @@
         <v>343</v>
       </c>
       <c r="C552">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -10356,7 +10353,7 @@
         <v>973</v>
       </c>
       <c r="C555">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -10378,7 +10375,7 @@
         <v>707</v>
       </c>
       <c r="C557">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -10389,7 +10386,7 @@
         <v>746</v>
       </c>
       <c r="C558">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -10400,7 +10397,7 @@
         <v>897</v>
       </c>
       <c r="C559">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -10411,7 +10408,7 @@
         <v>970</v>
       </c>
       <c r="C560">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -10422,7 +10419,7 @@
         <v>684</v>
       </c>
       <c r="C561">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -10455,7 +10452,7 @@
         <v>296</v>
       </c>
       <c r="C564">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -10477,7 +10474,7 @@
         <v>853</v>
       </c>
       <c r="C566">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -10488,7 +10485,7 @@
         <v>926</v>
       </c>
       <c r="C567">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -10499,7 +10496,7 @@
         <v>976</v>
       </c>
       <c r="C568">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -10510,7 +10507,7 @@
         <v>325</v>
       </c>
       <c r="C569">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -10521,7 +10518,7 @@
         <v>970</v>
       </c>
       <c r="C570">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -10532,7 +10529,7 @@
         <v>351</v>
       </c>
       <c r="C571">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -10543,7 +10540,7 @@
         <v>757</v>
       </c>
       <c r="C572">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -10554,7 +10551,7 @@
         <v>858</v>
       </c>
       <c r="C573">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -10565,7 +10562,7 @@
         <v>923</v>
       </c>
       <c r="C574">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,7 +10573,7 @@
         <v>757</v>
       </c>
       <c r="C575">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -10587,7 +10584,7 @@
         <v>280</v>
       </c>
       <c r="C576">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -10598,7 +10595,7 @@
         <v>240</v>
       </c>
       <c r="C577">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -10609,7 +10606,7 @@
         <v>339</v>
       </c>
       <c r="C578">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -10620,7 +10617,7 @@
         <v>923</v>
       </c>
       <c r="C579">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -10631,7 +10628,7 @@
         <v>998</v>
       </c>
       <c r="C580">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -10642,7 +10639,7 @@
         <v>298</v>
       </c>
       <c r="C581">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -10653,7 +10650,7 @@
         <v>628</v>
       </c>
       <c r="C582">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -10664,7 +10661,7 @@
         <v>270</v>
       </c>
       <c r="C583">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -10675,7 +10672,7 @@
         <v>684</v>
       </c>
       <c r="C584">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -10686,7 +10683,7 @@
         <v>279</v>
       </c>
       <c r="C585">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -10697,7 +10694,7 @@
         <v>746</v>
       </c>
       <c r="C586">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -10708,7 +10705,7 @@
         <v>757</v>
       </c>
       <c r="C587">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -10730,7 +10727,7 @@
         <v>831</v>
       </c>
       <c r="C589">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -10741,7 +10738,7 @@
         <v>850</v>
       </c>
       <c r="C590">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -10752,7 +10749,7 @@
         <v>984</v>
       </c>
       <c r="C591">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -10763,7 +10760,7 @@
         <v>308</v>
       </c>
       <c r="C592">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -10774,7 +10771,7 @@
         <v>653</v>
       </c>
       <c r="C593">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -10785,7 +10782,7 @@
         <v>350</v>
       </c>
       <c r="C594">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -10796,7 +10793,7 @@
         <v>731</v>
       </c>
       <c r="C595">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -10807,7 +10804,7 @@
         <v>739</v>
       </c>
       <c r="C596">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -10818,7 +10815,7 @@
         <v>831</v>
       </c>
       <c r="C597">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -10829,7 +10826,7 @@
         <v>961</v>
       </c>
       <c r="C598">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -10840,7 +10837,7 @@
         <v>240</v>
       </c>
       <c r="C599">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -10862,7 +10859,7 @@
         <v>720</v>
       </c>
       <c r="C601">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -10873,7 +10870,7 @@
         <v>511</v>
       </c>
       <c r="C602">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -10884,7 +10881,7 @@
         <v>511</v>
       </c>
       <c r="C603">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -10950,7 +10947,7 @@
         <v>799</v>
       </c>
       <c r="C609">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -10961,7 +10958,7 @@
         <v>343</v>
       </c>
       <c r="C610">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -11005,7 +11002,7 @@
         <v>270</v>
       </c>
       <c r="C614">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -11038,7 +11035,7 @@
         <v>216</v>
       </c>
       <c r="C617">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,7 +11046,7 @@
         <v>338</v>
       </c>
       <c r="C618">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -11060,7 +11057,7 @@
         <v>343</v>
       </c>
       <c r="C619">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -11071,7 +11068,7 @@
         <v>776</v>
       </c>
       <c r="C620">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -11115,7 +11112,7 @@
         <v>835</v>
       </c>
       <c r="C624">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -11137,7 +11134,7 @@
         <v>820</v>
       </c>
       <c r="C626">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -11148,7 +11145,7 @@
         <v>730</v>
       </c>
       <c r="C627">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -11159,7 +11156,7 @@
         <v>339</v>
       </c>
       <c r="C628">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -11170,7 +11167,7 @@
         <v>980</v>
       </c>
       <c r="C629">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -11181,7 +11178,7 @@
         <v>674</v>
       </c>
       <c r="C630">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -11192,7 +11189,7 @@
         <v>891</v>
       </c>
       <c r="C631">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -11203,7 +11200,7 @@
         <v>761</v>
       </c>
       <c r="C632">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -11214,7 +11211,7 @@
         <v>343</v>
       </c>
       <c r="C633">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -11236,7 +11233,7 @@
         <v>999</v>
       </c>
       <c r="C635">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -11247,7 +11244,7 @@
         <v>514</v>
       </c>
       <c r="C636">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -11258,7 +11255,7 @@
         <v>296</v>
       </c>
       <c r="C637">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -11269,7 +11266,7 @@
         <v>522</v>
       </c>
       <c r="C638">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -11280,7 +11277,7 @@
         <v>999</v>
       </c>
       <c r="C639">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -11291,7 +11288,7 @@
         <v>512</v>
       </c>
       <c r="C640">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -11313,7 +11310,7 @@
         <v>684</v>
       </c>
       <c r="C642">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -11357,7 +11354,7 @@
         <v>231</v>
       </c>
       <c r="C646">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -11368,7 +11365,7 @@
         <v>684</v>
       </c>
       <c r="C647">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -11379,7 +11376,7 @@
         <v>853</v>
       </c>
       <c r="C648">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -11401,7 +11398,7 @@
         <v>295</v>
       </c>
       <c r="C650">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -11412,7 +11409,7 @@
         <v>324</v>
       </c>
       <c r="C651">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -11423,7 +11420,7 @@
         <v>294</v>
       </c>
       <c r="C652">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -11434,7 +11431,7 @@
         <v>837</v>
       </c>
       <c r="C653">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -11456,7 +11453,7 @@
         <v>295</v>
       </c>
       <c r="C655">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -11478,7 +11475,7 @@
         <v>282</v>
       </c>
       <c r="C657">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -11489,7 +11486,7 @@
         <v>720</v>
       </c>
       <c r="C658">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -11500,7 +11497,7 @@
         <v>723</v>
       </c>
       <c r="C659">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -11511,7 +11508,7 @@
         <v>282</v>
       </c>
       <c r="C660">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -11533,7 +11530,7 @@
         <v>707</v>
       </c>
       <c r="C662">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -11544,7 +11541,7 @@
         <v>512</v>
       </c>
       <c r="C663">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -11555,7 +11552,7 @@
         <v>837</v>
       </c>
       <c r="C664">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
@@ -11563,10 +11560,10 @@
         <v>956</v>
       </c>
       <c r="B665" t="s">
-        <v>955</v>
+        <v>981</v>
       </c>
       <c r="C665">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -11574,21 +11571,21 @@
         <v>956</v>
       </c>
       <c r="B666" t="s">
-        <v>981</v>
+        <v>313</v>
       </c>
       <c r="C666">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="B667" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C667">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.102564</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
@@ -11596,10 +11593,10 @@
         <v>938</v>
       </c>
       <c r="B668" t="s">
-        <v>320</v>
+        <v>955</v>
       </c>
       <c r="C668">
-        <v>-0.102564</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -11610,7 +11607,7 @@
         <v>271</v>
       </c>
       <c r="C669">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -11621,7 +11618,7 @@
         <v>891</v>
       </c>
       <c r="C670">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
@@ -11632,7 +11629,7 @@
         <v>985</v>
       </c>
       <c r="C671">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
@@ -11643,7 +11640,7 @@
         <v>707</v>
       </c>
       <c r="C672">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -11654,7 +11651,7 @@
         <v>585</v>
       </c>
       <c r="C673">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
@@ -11665,7 +11662,7 @@
         <v>92</v>
       </c>
       <c r="C674">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
@@ -11676,7 +11673,7 @@
         <v>513</v>
       </c>
       <c r="C675">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -11687,7 +11684,7 @@
         <v>270</v>
       </c>
       <c r="C676">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -11698,7 +11695,7 @@
         <v>512</v>
       </c>
       <c r="C677">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -11709,7 +11706,7 @@
         <v>907</v>
       </c>
       <c r="C678">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
@@ -11720,7 +11717,7 @@
         <v>746</v>
       </c>
       <c r="C679">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
@@ -11731,7 +11728,7 @@
         <v>937</v>
       </c>
       <c r="C680">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
@@ -11742,7 +11739,7 @@
         <v>991</v>
       </c>
       <c r="C681">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
@@ -11753,7 +11750,7 @@
         <v>853</v>
       </c>
       <c r="C682">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,7 +11761,7 @@
         <v>515</v>
       </c>
       <c r="C683">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -11775,7 +11772,7 @@
         <v>306</v>
       </c>
       <c r="C684">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -11808,7 +11805,7 @@
         <v>994</v>
       </c>
       <c r="C687">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -11819,7 +11816,7 @@
         <v>523</v>
       </c>
       <c r="C688">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -11830,7 +11827,7 @@
         <v>515</v>
       </c>
       <c r="C689">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -11852,7 +11849,7 @@
         <v>506</v>
       </c>
       <c r="C691">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -11863,7 +11860,7 @@
         <v>701</v>
       </c>
       <c r="C692">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -11874,7 +11871,7 @@
         <v>212</v>
       </c>
       <c r="C693">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
@@ -11885,40 +11882,40 @@
         <v>289</v>
       </c>
       <c r="C694">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>657</v>
+        <v>563</v>
       </c>
       <c r="B695" t="s">
-        <v>351</v>
+        <v>564</v>
       </c>
       <c r="C695">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="B696" t="s">
-        <v>564</v>
+        <v>257</v>
       </c>
       <c r="C696">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.26699000000000001</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>545</v>
+        <v>640</v>
       </c>
       <c r="B697" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C697">
-        <v>-0.26699000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -11926,10 +11923,10 @@
         <v>640</v>
       </c>
       <c r="B698" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="C698">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.3034</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
@@ -11940,7 +11937,7 @@
         <v>303</v>
       </c>
       <c r="C699">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
@@ -11962,7 +11959,7 @@
         <v>909</v>
       </c>
       <c r="C701">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -11984,7 +11981,7 @@
         <v>334</v>
       </c>
       <c r="C703">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -11995,7 +11992,7 @@
         <v>347</v>
       </c>
       <c r="C704">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -12006,7 +12003,7 @@
         <v>521</v>
       </c>
       <c r="C705">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
@@ -12017,7 +12014,7 @@
         <v>521</v>
       </c>
       <c r="C706">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -12039,7 +12036,7 @@
         <v>303</v>
       </c>
       <c r="C708">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -12050,7 +12047,7 @@
         <v>303</v>
       </c>
       <c r="C709">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -12083,7 +12080,7 @@
         <v>527</v>
       </c>
       <c r="C712">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -12094,7 +12091,7 @@
         <v>696</v>
       </c>
       <c r="C713">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -12105,7 +12102,7 @@
         <v>253</v>
       </c>
       <c r="C714">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -12113,21 +12110,21 @@
         <v>559</v>
       </c>
       <c r="B715" t="s">
-        <v>303</v>
+        <v>909</v>
       </c>
       <c r="C715">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.41825099999999998</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>559</v>
+        <v>771</v>
       </c>
       <c r="B716" t="s">
-        <v>909</v>
+        <v>303</v>
       </c>
       <c r="C716">
-        <v>-0.41825099999999998</v>
+        <v>-0.20144000000000001</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
@@ -12135,32 +12132,32 @@
         <v>771</v>
       </c>
       <c r="B717" t="s">
-        <v>772</v>
+        <v>853</v>
       </c>
       <c r="C717">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>771</v>
+        <v>1062</v>
       </c>
       <c r="B718" t="s">
-        <v>853</v>
+        <v>772</v>
       </c>
       <c r="C718">
-        <v>5.0000000000000001E-3</v>
+        <v>-9.3921599999999994E-2</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>957</v>
+        <v>546</v>
       </c>
       <c r="B719" t="s">
-        <v>955</v>
+        <v>257</v>
       </c>
       <c r="C719">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -12168,21 +12165,21 @@
         <v>546</v>
       </c>
       <c r="B720" t="s">
-        <v>257</v>
+        <v>955</v>
       </c>
       <c r="C720">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.12325999999999999</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>682</v>
+        <v>812</v>
       </c>
       <c r="B721" t="s">
         <v>683</v>
       </c>
       <c r="C721">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -12215,7 +12212,7 @@
         <v>799</v>
       </c>
       <c r="C724">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -12226,7 +12223,7 @@
         <v>899</v>
       </c>
       <c r="C725">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -12237,7 +12234,7 @@
         <v>975</v>
       </c>
       <c r="C726">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -12248,7 +12245,7 @@
         <v>348</v>
       </c>
       <c r="C727">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -12270,7 +12267,7 @@
         <v>820</v>
       </c>
       <c r="C729">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -12281,7 +12278,7 @@
         <v>820</v>
       </c>
       <c r="C730">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -12292,7 +12289,7 @@
         <v>820</v>
       </c>
       <c r="C731">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -12303,7 +12300,7 @@
         <v>866</v>
       </c>
       <c r="C732">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -12314,7 +12311,7 @@
         <v>866</v>
       </c>
       <c r="C733">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -12325,7 +12322,7 @@
         <v>325</v>
       </c>
       <c r="C734">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -12336,7 +12333,7 @@
         <v>713</v>
       </c>
       <c r="C735">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -12347,7 +12344,7 @@
         <v>794</v>
       </c>
       <c r="C736">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -12358,7 +12355,7 @@
         <v>834</v>
       </c>
       <c r="C737">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +12366,7 @@
         <v>844</v>
       </c>
       <c r="C738">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -12380,7 +12377,7 @@
         <v>861</v>
       </c>
       <c r="C739">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -12391,7 +12388,7 @@
         <v>272</v>
       </c>
       <c r="C740">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -12402,7 +12399,7 @@
         <v>888</v>
       </c>
       <c r="C741">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
@@ -12413,7 +12410,7 @@
         <v>784</v>
       </c>
       <c r="C742">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
@@ -12424,7 +12421,7 @@
         <v>275</v>
       </c>
       <c r="C743">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
@@ -12435,7 +12432,7 @@
         <v>264</v>
       </c>
       <c r="C744">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
@@ -12468,7 +12465,7 @@
         <v>774</v>
       </c>
       <c r="C747">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
@@ -12490,7 +12487,7 @@
         <v>858</v>
       </c>
       <c r="C749">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
@@ -12512,7 +12509,7 @@
         <v>909</v>
       </c>
       <c r="C751">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
@@ -12534,7 +12531,7 @@
         <v>961</v>
       </c>
       <c r="C753">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
@@ -12545,7 +12542,7 @@
         <v>961</v>
       </c>
       <c r="C754">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
@@ -12556,7 +12553,7 @@
         <v>328</v>
       </c>
       <c r="C755">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
@@ -12567,7 +12564,7 @@
         <v>891</v>
       </c>
       <c r="C756">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
@@ -12578,7 +12575,7 @@
         <v>826</v>
       </c>
       <c r="C757">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
@@ -12589,7 +12586,7 @@
         <v>522</v>
       </c>
       <c r="C758">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
@@ -12597,54 +12594,54 @@
         <v>681</v>
       </c>
       <c r="B759" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
       <c r="C759">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>681</v>
+        <v>869</v>
       </c>
       <c r="B760" t="s">
-        <v>713</v>
+        <v>866</v>
       </c>
       <c r="C760">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>869</v>
+        <v>740</v>
       </c>
       <c r="B761" t="s">
-        <v>866</v>
+        <v>741</v>
       </c>
       <c r="C761">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>740</v>
+        <v>560</v>
       </c>
       <c r="B762" t="s">
-        <v>741</v>
+        <v>303</v>
       </c>
       <c r="C762">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.26983200000000002</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>987</v>
+        <v>560</v>
       </c>
       <c r="B763" t="s">
-        <v>212</v>
+        <v>680</v>
       </c>
       <c r="C763">
-        <v>5.0000000000000001E-3</v>
+        <v>-8.4165500000000004E-2</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
@@ -12652,10 +12649,10 @@
         <v>560</v>
       </c>
       <c r="B764" t="s">
-        <v>303</v>
+        <v>860</v>
       </c>
       <c r="C764">
-        <v>-0.26983200000000002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
@@ -12663,10 +12660,10 @@
         <v>560</v>
       </c>
       <c r="B765" t="s">
-        <v>860</v>
+        <v>212</v>
       </c>
       <c r="C765">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
@@ -12677,7 +12674,7 @@
         <v>837</v>
       </c>
       <c r="C766">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
@@ -12688,7 +12685,7 @@
         <v>889</v>
       </c>
       <c r="C767">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
@@ -12699,7 +12696,7 @@
         <v>837</v>
       </c>
       <c r="C768">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
@@ -12732,7 +12729,7 @@
         <v>351</v>
       </c>
       <c r="C771">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
@@ -12743,7 +12740,7 @@
         <v>212</v>
       </c>
       <c r="C772">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
@@ -12754,7 +12751,7 @@
         <v>293</v>
       </c>
       <c r="C773">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
@@ -12765,7 +12762,7 @@
         <v>351</v>
       </c>
       <c r="C774">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
@@ -12776,7 +12773,7 @@
         <v>680</v>
       </c>
       <c r="C775">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +12784,7 @@
         <v>569</v>
       </c>
       <c r="C776">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
@@ -12798,7 +12795,7 @@
         <v>628</v>
       </c>
       <c r="C777">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
@@ -12809,7 +12806,7 @@
         <v>326</v>
       </c>
       <c r="C778">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
@@ -12831,7 +12828,7 @@
         <v>628</v>
       </c>
       <c r="C780">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -12864,7 +12861,7 @@
         <v>320</v>
       </c>
       <c r="C783">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
@@ -12875,7 +12872,7 @@
         <v>295</v>
       </c>
       <c r="C784">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
@@ -12886,7 +12883,7 @@
         <v>810</v>
       </c>
       <c r="C785">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
@@ -12897,7 +12894,7 @@
         <v>320</v>
       </c>
       <c r="C786">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
@@ -12916,10 +12913,10 @@
         <v>881</v>
       </c>
       <c r="B788" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C788">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
@@ -12927,10 +12924,10 @@
         <v>881</v>
       </c>
       <c r="B789" t="s">
-        <v>522</v>
+        <v>320</v>
       </c>
       <c r="C789">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
@@ -12938,21 +12935,21 @@
         <v>881</v>
       </c>
       <c r="B790" t="s">
-        <v>320</v>
+        <v>999</v>
       </c>
       <c r="C790">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>881</v>
+        <v>586</v>
       </c>
       <c r="B791" t="s">
-        <v>999</v>
+        <v>585</v>
       </c>
       <c r="C791">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -12960,10 +12957,10 @@
         <v>586</v>
       </c>
       <c r="B792" t="s">
-        <v>585</v>
+        <v>294</v>
       </c>
       <c r="C792">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
@@ -12971,10 +12968,10 @@
         <v>586</v>
       </c>
       <c r="B793" t="s">
-        <v>294</v>
+        <v>720</v>
       </c>
       <c r="C793">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.33333299999999999</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
@@ -12982,21 +12979,21 @@
         <v>586</v>
       </c>
       <c r="B794" t="s">
-        <v>720</v>
+        <v>898</v>
       </c>
       <c r="C794">
-        <v>-0.33333299999999999</v>
+        <v>-0.12839100000000001</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="B795" t="s">
-        <v>898</v>
+        <v>628</v>
       </c>
       <c r="C795">
-        <v>-0.12839100000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
@@ -13004,10 +13001,10 @@
         <v>561</v>
       </c>
       <c r="B796" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C796">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
@@ -13015,10 +13012,10 @@
         <v>561</v>
       </c>
       <c r="B797" t="s">
-        <v>628</v>
+        <v>736</v>
       </c>
       <c r="C797">
-        <v>5.0000000000000001E-3</v>
+        <v>-5.9360700000000002E-2</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
@@ -13026,65 +13023,65 @@
         <v>561</v>
       </c>
       <c r="B798" t="s">
-        <v>294</v>
+        <v>961</v>
       </c>
       <c r="C798">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B799" t="s">
-        <v>736</v>
+        <v>294</v>
       </c>
       <c r="C799">
-        <v>-5.9360700000000002E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B800" t="s">
-        <v>961</v>
+        <v>515</v>
       </c>
       <c r="C800">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.18808800000000001</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B801" t="s">
         <v>583</v>
       </c>
       <c r="C801">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B802" t="s">
-        <v>294</v>
+        <v>585</v>
       </c>
       <c r="C802">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B803" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C803">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
@@ -13092,10 +13089,10 @@
         <v>587</v>
       </c>
       <c r="B804" t="s">
-        <v>585</v>
+        <v>701</v>
       </c>
       <c r="C804">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
@@ -13103,10 +13100,10 @@
         <v>587</v>
       </c>
       <c r="B805" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C805">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.14028599999999999</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
@@ -13114,21 +13111,21 @@
         <v>587</v>
       </c>
       <c r="B806" t="s">
-        <v>701</v>
+        <v>311</v>
       </c>
       <c r="C806">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B807" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C807">
-        <v>5.0000000000000001E-3</v>
+        <v>-6.6666699999999995E-2</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
@@ -13139,7 +13136,7 @@
         <v>569</v>
       </c>
       <c r="C808">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
@@ -13150,7 +13147,7 @@
         <v>294</v>
       </c>
       <c r="C809">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
@@ -13161,7 +13158,7 @@
         <v>904</v>
       </c>
       <c r="C810">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -13172,7 +13169,7 @@
         <v>585</v>
       </c>
       <c r="C811">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -13183,7 +13180,7 @@
         <v>628</v>
       </c>
       <c r="C812">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -13194,7 +13191,7 @@
         <v>239</v>
       </c>
       <c r="C813">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -13216,7 +13213,7 @@
         <v>994</v>
       </c>
       <c r="C815">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -13238,7 +13235,7 @@
         <v>549</v>
       </c>
       <c r="C817">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -13249,7 +13246,7 @@
         <v>727</v>
       </c>
       <c r="C818">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -13271,7 +13268,7 @@
         <v>348</v>
       </c>
       <c r="C820">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -13282,7 +13279,7 @@
         <v>231</v>
       </c>
       <c r="C821">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
@@ -13293,7 +13290,7 @@
         <v>519</v>
       </c>
       <c r="C822">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
@@ -13304,7 +13301,7 @@
         <v>304</v>
       </c>
       <c r="C823">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -13315,7 +13312,7 @@
         <v>522</v>
       </c>
       <c r="C824">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
@@ -13326,7 +13323,7 @@
         <v>585</v>
       </c>
       <c r="C825">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
@@ -13348,7 +13345,7 @@
         <v>231</v>
       </c>
       <c r="C827">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
@@ -13359,7 +13356,7 @@
         <v>994</v>
       </c>
       <c r="C828">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
@@ -13370,7 +13367,7 @@
         <v>293</v>
       </c>
       <c r="C829">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
@@ -13381,7 +13378,7 @@
         <v>294</v>
       </c>
       <c r="C830">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -13392,7 +13389,7 @@
         <v>304</v>
       </c>
       <c r="C831">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
@@ -13414,7 +13411,7 @@
         <v>994</v>
       </c>
       <c r="C833">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
@@ -13436,7 +13433,7 @@
         <v>585</v>
       </c>
       <c r="C835">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
@@ -13447,7 +13444,7 @@
         <v>601</v>
       </c>
       <c r="C836">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
@@ -13458,7 +13455,7 @@
         <v>294</v>
       </c>
       <c r="C837">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
@@ -13469,7 +13466,7 @@
         <v>338</v>
       </c>
       <c r="C838">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
@@ -13480,7 +13477,7 @@
         <v>276</v>
       </c>
       <c r="C839">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
@@ -13491,7 +13488,7 @@
         <v>585</v>
       </c>
       <c r="C840">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
@@ -13502,7 +13499,7 @@
         <v>307</v>
       </c>
       <c r="C841">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
@@ -13513,7 +13510,7 @@
         <v>294</v>
       </c>
       <c r="C842">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
@@ -13521,10 +13518,10 @@
         <v>591</v>
       </c>
       <c r="B843" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="C843">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
@@ -13532,21 +13529,21 @@
         <v>591</v>
       </c>
       <c r="B844" t="s">
-        <v>845</v>
+        <v>348</v>
       </c>
       <c r="C844">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B845" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="C845">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -13554,10 +13551,10 @@
         <v>576</v>
       </c>
       <c r="B846" t="s">
-        <v>285</v>
+        <v>585</v>
       </c>
       <c r="C846">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -13565,10 +13562,10 @@
         <v>576</v>
       </c>
       <c r="B847" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="C847">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -13576,10 +13573,10 @@
         <v>576</v>
       </c>
       <c r="B848" t="s">
-        <v>601</v>
+        <v>351</v>
       </c>
       <c r="C848">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -13587,10 +13584,10 @@
         <v>576</v>
       </c>
       <c r="B849" t="s">
-        <v>351</v>
+        <v>710</v>
       </c>
       <c r="C849">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -13598,10 +13595,10 @@
         <v>576</v>
       </c>
       <c r="B850" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C850">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -13609,10 +13606,10 @@
         <v>576</v>
       </c>
       <c r="B851" t="s">
-        <v>713</v>
+        <v>836</v>
       </c>
       <c r="C851">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -13620,10 +13617,10 @@
         <v>576</v>
       </c>
       <c r="B852" t="s">
-        <v>836</v>
+        <v>909</v>
       </c>
       <c r="C852">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.25078</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -13631,21 +13628,21 @@
         <v>576</v>
       </c>
       <c r="B853" t="s">
-        <v>909</v>
+        <v>291</v>
       </c>
       <c r="C853">
-        <v>-0.25078</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>576</v>
+        <v>863</v>
       </c>
       <c r="B854" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="C854">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
@@ -13653,10 +13650,10 @@
         <v>863</v>
       </c>
       <c r="B855" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C855">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -13664,10 +13661,10 @@
         <v>863</v>
       </c>
       <c r="B856" t="s">
-        <v>343</v>
+        <v>994</v>
       </c>
       <c r="C856">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -13675,21 +13672,21 @@
         <v>863</v>
       </c>
       <c r="B857" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="C857">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B858" t="s">
-        <v>999</v>
+        <v>797</v>
       </c>
       <c r="C858">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -13700,7 +13697,7 @@
         <v>339</v>
       </c>
       <c r="C859">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -13722,7 +13719,7 @@
         <v>994</v>
       </c>
       <c r="C861">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -13733,7 +13730,7 @@
         <v>307</v>
       </c>
       <c r="C862">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -13744,7 +13741,7 @@
         <v>909</v>
       </c>
       <c r="C863">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
@@ -13755,7 +13752,7 @@
         <v>601</v>
       </c>
       <c r="C864">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
@@ -13766,7 +13763,7 @@
         <v>604</v>
       </c>
       <c r="C865">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -13777,7 +13774,7 @@
         <v>294</v>
       </c>
       <c r="C866">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
@@ -13788,7 +13785,7 @@
         <v>713</v>
       </c>
       <c r="C867">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
@@ -13810,7 +13807,7 @@
         <v>343</v>
       </c>
       <c r="C869">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -13821,7 +13818,7 @@
         <v>515</v>
       </c>
       <c r="C870">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
@@ -13832,7 +13829,7 @@
         <v>940</v>
       </c>
       <c r="C871">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -13843,7 +13840,7 @@
         <v>999</v>
       </c>
       <c r="C872">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -13865,7 +13862,7 @@
         <v>829</v>
       </c>
       <c r="C874">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -13876,7 +13873,7 @@
         <v>346</v>
       </c>
       <c r="C875">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -13887,7 +13884,7 @@
         <v>826</v>
       </c>
       <c r="C876">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -13909,7 +13906,7 @@
         <v>994</v>
       </c>
       <c r="C878">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -13931,7 +13928,7 @@
         <v>713</v>
       </c>
       <c r="C880">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -13953,7 +13950,7 @@
         <v>772</v>
       </c>
       <c r="C882">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
@@ -13975,7 +13972,7 @@
         <v>347</v>
       </c>
       <c r="C884">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -14008,7 +14005,7 @@
         <v>981</v>
       </c>
       <c r="C887">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -14030,7 +14027,7 @@
         <v>351</v>
       </c>
       <c r="C889">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -14052,7 +14049,7 @@
         <v>522</v>
       </c>
       <c r="C891">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
@@ -14085,7 +14082,7 @@
         <v>909</v>
       </c>
       <c r="C894">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
@@ -14096,7 +14093,7 @@
         <v>304</v>
       </c>
       <c r="C895">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -14118,7 +14115,7 @@
         <v>264</v>
       </c>
       <c r="C897">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
@@ -14162,7 +14159,7 @@
         <v>264</v>
       </c>
       <c r="C901">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
@@ -14173,7 +14170,7 @@
         <v>752</v>
       </c>
       <c r="C902">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -14184,7 +14181,7 @@
         <v>343</v>
       </c>
       <c r="C903">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -14195,7 +14192,7 @@
         <v>522</v>
       </c>
       <c r="C904">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -14206,7 +14203,7 @@
         <v>994</v>
       </c>
       <c r="C905">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -14217,7 +14214,7 @@
         <v>257</v>
       </c>
       <c r="C906">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -14228,7 +14225,7 @@
         <v>264</v>
       </c>
       <c r="C907">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -14239,7 +14236,7 @@
         <v>691</v>
       </c>
       <c r="C908">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -14250,7 +14247,7 @@
         <v>339</v>
       </c>
       <c r="C909">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
@@ -14261,7 +14258,7 @@
         <v>942</v>
       </c>
       <c r="C910">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
@@ -14272,7 +14269,7 @@
         <v>274</v>
       </c>
       <c r="C911">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
@@ -14283,7 +14280,7 @@
         <v>339</v>
       </c>
       <c r="C912">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
@@ -14294,7 +14291,7 @@
         <v>904</v>
       </c>
       <c r="C913">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
@@ -14305,7 +14302,7 @@
         <v>534</v>
       </c>
       <c r="C914">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
@@ -14316,7 +14313,7 @@
         <v>264</v>
       </c>
       <c r="C915">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
@@ -14327,7 +14324,7 @@
         <v>904</v>
       </c>
       <c r="C916">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
@@ -14349,7 +14346,7 @@
         <v>904</v>
       </c>
       <c r="C918">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -14360,7 +14357,7 @@
         <v>988</v>
       </c>
       <c r="C919">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -14379,21 +14376,21 @@
         <v>592</v>
       </c>
       <c r="B921" t="s">
-        <v>585</v>
+        <v>994</v>
       </c>
       <c r="C921">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.30057800000000001</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>592</v>
+        <v>767</v>
       </c>
       <c r="B922" t="s">
-        <v>994</v>
+        <v>328</v>
       </c>
       <c r="C922">
-        <v>-0.30057800000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
@@ -14401,43 +14398,43 @@
         <v>767</v>
       </c>
       <c r="B923" t="s">
-        <v>328</v>
+        <v>934</v>
       </c>
       <c r="C923">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="B924" t="s">
-        <v>934</v>
+        <v>853</v>
       </c>
       <c r="C924">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.28078799999999998</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>857</v>
+        <v>918</v>
       </c>
       <c r="B925" t="s">
-        <v>853</v>
+        <v>304</v>
       </c>
       <c r="C925">
-        <v>-0.28078799999999998</v>
+        <v>-0.283688</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>918</v>
+        <v>1026</v>
       </c>
       <c r="B926" t="s">
-        <v>304</v>
+        <v>585</v>
       </c>
       <c r="C926">
-        <v>-0.283688</v>
+        <v>-0.214286</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
@@ -14459,7 +14456,7 @@
         <v>527</v>
       </c>
       <c r="C928">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
@@ -14492,7 +14489,7 @@
         <v>334</v>
       </c>
       <c r="C931">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -14503,7 +14500,7 @@
         <v>515</v>
       </c>
       <c r="C932">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -14514,7 +14511,7 @@
         <v>904</v>
       </c>
       <c r="C933">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -14525,7 +14522,7 @@
         <v>826</v>
       </c>
       <c r="C934">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -14536,7 +14533,7 @@
         <v>264</v>
       </c>
       <c r="C935">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -14547,7 +14544,7 @@
         <v>944</v>
       </c>
       <c r="C936">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
@@ -14558,7 +14555,7 @@
         <v>304</v>
       </c>
       <c r="C937">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -14569,7 +14566,7 @@
         <v>301</v>
       </c>
       <c r="C938">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
@@ -14580,7 +14577,7 @@
         <v>524</v>
       </c>
       <c r="C939">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -14588,10 +14585,10 @@
         <v>828</v>
       </c>
       <c r="B940" t="s">
-        <v>826</v>
+        <v>958</v>
       </c>
       <c r="C940">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
@@ -14599,32 +14596,32 @@
         <v>828</v>
       </c>
       <c r="B941" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="C941">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="B942" t="s">
-        <v>973</v>
+        <v>280</v>
       </c>
       <c r="C942">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.20703099999999999</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>807</v>
+        <v>665</v>
       </c>
       <c r="B943" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C943">
-        <v>-0.20703099999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
@@ -14632,10 +14629,10 @@
         <v>665</v>
       </c>
       <c r="B944" t="s">
-        <v>264</v>
+        <v>713</v>
       </c>
       <c r="C944">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
@@ -14643,10 +14640,10 @@
         <v>665</v>
       </c>
       <c r="B945" t="s">
-        <v>713</v>
+        <v>826</v>
       </c>
       <c r="C945">
-        <v>5.0000000000000001E-3</v>
+        <v>-7.3732699999999998E-2</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
@@ -14657,7 +14654,7 @@
         <v>799</v>
       </c>
       <c r="C946">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
@@ -14668,7 +14665,7 @@
         <v>306</v>
       </c>
       <c r="C947">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -14679,7 +14676,7 @@
         <v>713</v>
       </c>
       <c r="C948">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -14690,7 +14687,7 @@
         <v>726</v>
       </c>
       <c r="C949">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -14701,7 +14698,7 @@
         <v>233</v>
       </c>
       <c r="C950">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
@@ -14712,7 +14709,7 @@
         <v>692</v>
       </c>
       <c r="C951">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
@@ -14723,7 +14720,7 @@
         <v>741</v>
       </c>
       <c r="C952">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
@@ -14734,7 +14731,7 @@
         <v>904</v>
       </c>
       <c r="C953">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
@@ -14745,7 +14742,7 @@
         <v>999</v>
       </c>
       <c r="C954">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
@@ -14756,7 +14753,7 @@
         <v>748</v>
       </c>
       <c r="C955">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
@@ -14778,7 +14775,7 @@
         <v>952</v>
       </c>
       <c r="C957">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
@@ -14811,7 +14808,7 @@
         <v>981</v>
       </c>
       <c r="C960">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
@@ -14833,7 +14830,7 @@
         <v>952</v>
       </c>
       <c r="C962">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
@@ -14844,7 +14841,7 @@
         <v>585</v>
       </c>
       <c r="C963">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
@@ -14855,7 +14852,7 @@
         <v>294</v>
       </c>
       <c r="C964">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
@@ -14866,7 +14863,7 @@
         <v>848</v>
       </c>
       <c r="C965">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
@@ -14877,51 +14874,51 @@
         <v>961</v>
       </c>
       <c r="C966">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>852</v>
+        <v>782</v>
       </c>
       <c r="B967" t="s">
-        <v>850</v>
+        <v>231</v>
       </c>
       <c r="C967">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.19259299999999999</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="B968" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C968">
-        <v>-0.19259299999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>802</v>
+        <v>1081</v>
       </c>
       <c r="B969" t="s">
-        <v>247</v>
+        <v>850</v>
       </c>
       <c r="C969">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.123934</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="B970" t="s">
-        <v>897</v>
+        <v>344</v>
       </c>
       <c r="C970">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
@@ -14929,21 +14926,21 @@
         <v>770</v>
       </c>
       <c r="B971" t="s">
-        <v>344</v>
+        <v>961</v>
       </c>
       <c r="C971">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.12797600000000001</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="B972" t="s">
-        <v>961</v>
+        <v>751</v>
       </c>
       <c r="C972">
-        <v>-0.12797600000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
@@ -14951,10 +14948,10 @@
         <v>750</v>
       </c>
       <c r="B973" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="C973">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
@@ -14962,10 +14959,10 @@
         <v>750</v>
       </c>
       <c r="B974" t="s">
-        <v>773</v>
+        <v>897</v>
       </c>
       <c r="C974">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.113731</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
@@ -14976,7 +14973,7 @@
         <v>713</v>
       </c>
       <c r="C975">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
@@ -14987,7 +14984,7 @@
         <v>294</v>
       </c>
       <c r="C976">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -14998,7 +14995,7 @@
         <v>347</v>
       </c>
       <c r="C977">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
@@ -15020,7 +15017,7 @@
         <v>952</v>
       </c>
       <c r="C979">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
@@ -15042,7 +15039,7 @@
         <v>549</v>
       </c>
       <c r="C981">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
@@ -15053,7 +15050,7 @@
         <v>239</v>
       </c>
       <c r="C982">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
@@ -15064,7 +15061,7 @@
         <v>549</v>
       </c>
       <c r="C983">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
@@ -15075,7 +15072,7 @@
         <v>713</v>
       </c>
       <c r="C984">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
@@ -15086,7 +15083,7 @@
         <v>994</v>
       </c>
       <c r="C985">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -15094,10 +15091,10 @@
         <v>532</v>
       </c>
       <c r="B986" t="s">
-        <v>531</v>
+        <v>904</v>
       </c>
       <c r="C986">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
@@ -15105,43 +15102,43 @@
         <v>532</v>
       </c>
       <c r="B987" t="s">
-        <v>904</v>
+        <v>961</v>
       </c>
       <c r="C987">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="B988" t="s">
-        <v>961</v>
+        <v>601</v>
       </c>
       <c r="C988">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="B989" t="s">
-        <v>601</v>
+        <v>529</v>
       </c>
       <c r="C989">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>528</v>
+        <v>645</v>
       </c>
       <c r="B990" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C990">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.27906999999999998</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
@@ -15152,7 +15149,7 @@
         <v>294</v>
       </c>
       <c r="C991">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
@@ -15163,7 +15160,7 @@
         <v>335</v>
       </c>
       <c r="C992">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
@@ -15174,7 +15171,7 @@
         <v>961</v>
       </c>
       <c r="C993">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
@@ -15185,29 +15182,29 @@
         <v>942</v>
       </c>
       <c r="C994">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="B995" t="s">
-        <v>894</v>
+        <v>522</v>
       </c>
       <c r="C995">
-        <v>5.0000000000000001E-3</v>
+        <v>-0.17818700000000001</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>920</v>
+        <v>734</v>
       </c>
       <c r="B996" t="s">
-        <v>522</v>
+        <v>335</v>
       </c>
       <c r="C996">
-        <v>-0.17818700000000001</v>
+        <v>-0.27414300000000003</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
@@ -15215,10 +15212,10 @@
         <v>734</v>
       </c>
       <c r="B997" t="s">
-        <v>335</v>
+        <v>894</v>
       </c>
       <c r="C997">
-        <v>-0.27414300000000003</v>
+        <v>-0.173489</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -15240,7 +15237,7 @@
         <v>810</v>
       </c>
       <c r="C999">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -15251,7 +15248,7 @@
         <v>701</v>
       </c>
       <c r="C1000">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
@@ -15262,7 +15259,7 @@
         <v>804</v>
       </c>
       <c r="C1001">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
@@ -15295,7 +15292,7 @@
         <v>285</v>
       </c>
       <c r="C1004">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
@@ -15306,7 +15303,7 @@
         <v>307</v>
       </c>
       <c r="C1005">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
@@ -15317,7 +15314,7 @@
         <v>628</v>
       </c>
       <c r="C1006">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
@@ -15339,7 +15336,7 @@
         <v>280</v>
       </c>
       <c r="C1008">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
@@ -15355,13 +15352,13 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>965</v>
+        <v>659</v>
       </c>
       <c r="B1010" t="s">
-        <v>961</v>
+        <v>351</v>
       </c>
       <c r="C1010">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
@@ -15369,10 +15366,10 @@
         <v>659</v>
       </c>
       <c r="B1011" t="s">
-        <v>351</v>
+        <v>961</v>
       </c>
       <c r="C1011">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
@@ -15383,7 +15380,7 @@
         <v>761</v>
       </c>
       <c r="C1012">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
@@ -15405,7 +15402,7 @@
         <v>925</v>
       </c>
       <c r="C1014">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
@@ -15416,7 +15413,7 @@
         <v>722</v>
       </c>
       <c r="C1015">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
@@ -15427,7 +15424,7 @@
         <v>727</v>
       </c>
       <c r="C1016">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
@@ -15438,7 +15435,7 @@
         <v>969</v>
       </c>
       <c r="C1017">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
@@ -15449,7 +15446,7 @@
         <v>283</v>
       </c>
       <c r="C1018">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
@@ -15460,12 +15457,12 @@
         <v>994</v>
       </c>
       <c r="C1019">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1019">
-    <sortCondition ref="A180:A1019"/>
+    <sortCondition ref="A1:A1019"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15475,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
